--- a/media/output/result/sepsis_cases_1_complex_evaluation_weighted_edit_distance0.33,0.33,0.33.xlsx
+++ b/media/output/result/sepsis_cases_1_complex_evaluation_weighted_edit_distance0.33,0.33,0.33.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +903,296 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>53</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
